--- a/tekal/ind.xlsx
+++ b/tekal/ind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\tekal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD12696-9331-4561-895B-999FB78F5AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693878A1-C712-47CE-B740-A466300A9123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25215" yWindow="5175" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="149">
   <si>
     <t>Accumulation/Distribution</t>
   </si>
@@ -297,9 +297,6 @@
     <t>W%R</t>
   </si>
   <si>
-    <t>SMA</t>
-  </si>
-  <si>
     <t>WMA</t>
   </si>
   <si>
@@ -321,22 +318,160 @@
     <t>Lead/Lag</t>
   </si>
   <si>
-    <t>T^ V?</t>
-  </si>
-  <si>
-    <t>T? V*</t>
-  </si>
-  <si>
     <t>^</t>
   </si>
   <si>
     <t>OBV</t>
   </si>
   <si>
-    <t>Src</t>
-  </si>
-  <si>
     <t>tv</t>
+  </si>
+  <si>
+    <t>T? | V*</t>
+  </si>
+  <si>
+    <t>T* | M?</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>mcb</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>Volume Rate of Change</t>
+  </si>
+  <si>
+    <t>V-ROC</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>❎</t>
+  </si>
+  <si>
+    <t>mt5</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>azb</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>Accelerator Oscillator</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Average Directional Index Wilder</t>
+  </si>
+  <si>
+    <t>ADXWilder</t>
+  </si>
+  <si>
+    <t>tc2</t>
+  </si>
+  <si>
+    <t>Alligator</t>
+  </si>
+  <si>
+    <t>Adaptive Moving Average</t>
+  </si>
+  <si>
+    <t>AMA</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>DEMA</t>
+  </si>
+  <si>
+    <t>Bears Power</t>
+  </si>
+  <si>
+    <t>Bulls Power</t>
+  </si>
+  <si>
+    <t>DeMarker</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Fractals</t>
+  </si>
+  <si>
+    <t>FrAMA</t>
+  </si>
+  <si>
+    <t>Fractal Adaptive Moving Average</t>
+  </si>
+  <si>
+    <t>Gator Oscillator</t>
+  </si>
+  <si>
+    <t>Gator</t>
+  </si>
+  <si>
+    <t>BWMFI</t>
+  </si>
+  <si>
+    <t>Market Facilitation Index Bill Williams</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Money Flow Index</t>
+  </si>
+  <si>
+    <t>MFI</t>
+  </si>
+  <si>
+    <t>RVI</t>
+  </si>
+  <si>
+    <t>TEMA</t>
+  </si>
+  <si>
+    <t>SMA | MA</t>
+  </si>
+  <si>
+    <t>MACD Histogram</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Variable Index Dynamic Average</t>
+  </si>
+  <si>
+    <t>VYDYA</t>
   </si>
 </sst>
 </file>
@@ -392,14 +527,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:E103" totalsRowShown="0">
-  <autoFilter ref="A1:E103" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:L97" totalsRowShown="0">
+  <autoFilter ref="A1:L97" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4868546D-E70B-4A18-9F7B-81FF9FB1880A}" name="Name"/>
     <tableColumn id="2" xr3:uid="{95B950FC-7417-4109-B485-441C5940D7E2}" name="Acronym"/>
     <tableColumn id="3" xr3:uid="{46B40589-25EC-45E8-BBFE-4E83654F850E}" name="Type"/>
     <tableColumn id="4" xr3:uid="{F368BB40-6A0A-4EB2-92D6-73F62EC4B761}" name="Lead/Lag"/>
-    <tableColumn id="5" xr3:uid="{A966F495-6A91-4860-9F68-B32DFCF29EB9}" name="Src"/>
+    <tableColumn id="5" xr3:uid="{A966F495-6A91-4860-9F68-B32DFCF29EB9}" name="tv"/>
+    <tableColumn id="6" xr3:uid="{B04D38BA-750C-42BF-8776-4BB614277482}" name="mt5"/>
+    <tableColumn id="7" xr3:uid="{D2BA039E-10A9-414D-B17D-FB19508FCEB4}" name="tt"/>
+    <tableColumn id="8" xr3:uid="{F554DD79-31B8-4647-A2C7-D6C5404040D4}" name="tc2"/>
+    <tableColumn id="9" xr3:uid="{017A7E09-53A8-4CEF-AE3F-5E6ECC9E1B62}" name="azb"/>
+    <tableColumn id="10" xr3:uid="{ABD9386F-EEDE-4C88-907E-3AEF79082283}" name="mcb"/>
+    <tableColumn id="11" xr3:uid="{FEAF1EE7-AB95-4690-86A4-73E18ED40FA6}" name="js"/>
+    <tableColumn id="12" xr3:uid="{2FB839E2-A84F-4D1B-89CF-1FFC3B114A08}" name="py"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,488 +810,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
       <c r="E1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
       <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="E28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="E30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
-      <c r="E33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>32</v>
       </c>
-      <c r="E40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="E41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
       <c r="E44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
       <c r="E45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
       <c r="E57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>47</v>
       </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>48</v>
       </c>
-      <c r="E60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>49</v>
-      </c>
-      <c r="B61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>50</v>
       </c>
       <c r="B62" t="s">
         <v>91</v>
@@ -1157,295 +1654,478 @@
       <c r="C62" t="s">
         <v>6</v>
       </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
       <c r="E62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
       <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="C79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>75</v>
       </c>
-      <c r="D66" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>57</v>
-      </c>
-      <c r="E72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
         <v>45</v>
       </c>
-      <c r="E76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="E78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>63</v>
-      </c>
-      <c r="E80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>68</v>
-      </c>
-      <c r="E85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>69</v>
-      </c>
-      <c r="E87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>70</v>
-      </c>
-      <c r="E88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>73</v>
-      </c>
-      <c r="E93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>74</v>
-      </c>
       <c r="E94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="B95" t="s">
+        <v>122</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F96" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>78</v>
-      </c>
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" t="s">
-        <v>45</v>
-      </c>
-      <c r="E99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>80</v>
-      </c>
-      <c r="E101" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="F97" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tekal/ind.xlsx
+++ b/tekal/ind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\tekal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693878A1-C712-47CE-B740-A466300A9123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CAEBAB-17F9-4305-8A7F-AC4F90CC7C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25215" yWindow="5175" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25035" yWindow="4110" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tekal/ind.xlsx
+++ b/tekal/ind.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\tekal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CAEBAB-17F9-4305-8A7F-AC4F90CC7C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A08AF5-7829-4F0C-9361-B6AEDAB00044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25035" yWindow="4110" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25200" yWindow="3330" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="160">
   <si>
     <t>Accumulation/Distribution</t>
   </si>
@@ -405,9 +405,6 @@
     <t>AO</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
     <t>DEMA</t>
   </si>
   <si>
@@ -472,6 +469,42 @@
   </si>
   <si>
     <t>VYDYA</t>
+  </si>
+  <si>
+    <t>Acceleration Bands</t>
+  </si>
+  <si>
+    <t>ABANDS</t>
+  </si>
+  <si>
+    <t>Absolute Price Oscillator</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>Aroon Oscillator</t>
+  </si>
+  <si>
+    <t>ARO</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Volume on the Ask</t>
+  </si>
+  <si>
+    <t>Volume on the Bid and Ask</t>
+  </si>
+  <si>
+    <t>AVOL</t>
+  </si>
+  <si>
+    <t>BAVOL</t>
+  </si>
+  <si>
+    <t>BB | BBANDS</t>
   </si>
 </sst>
 </file>
@@ -507,13 +540,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,21 +591,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:L97" totalsRowShown="0">
-  <autoFilter ref="A1:L97" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:L102" totalsRowShown="0">
+  <autoFilter ref="A1:L102" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4868546D-E70B-4A18-9F7B-81FF9FB1880A}" name="Name"/>
     <tableColumn id="2" xr3:uid="{95B950FC-7417-4109-B485-441C5940D7E2}" name="Acronym"/>
     <tableColumn id="3" xr3:uid="{46B40589-25EC-45E8-BBFE-4E83654F850E}" name="Type"/>
     <tableColumn id="4" xr3:uid="{F368BB40-6A0A-4EB2-92D6-73F62EC4B761}" name="Lead/Lag"/>
-    <tableColumn id="5" xr3:uid="{A966F495-6A91-4860-9F68-B32DFCF29EB9}" name="tv"/>
-    <tableColumn id="6" xr3:uid="{B04D38BA-750C-42BF-8776-4BB614277482}" name="mt5"/>
-    <tableColumn id="7" xr3:uid="{D2BA039E-10A9-414D-B17D-FB19508FCEB4}" name="tt"/>
-    <tableColumn id="8" xr3:uid="{F554DD79-31B8-4647-A2C7-D6C5404040D4}" name="tc2"/>
-    <tableColumn id="9" xr3:uid="{017A7E09-53A8-4CEF-AE3F-5E6ECC9E1B62}" name="azb"/>
-    <tableColumn id="10" xr3:uid="{ABD9386F-EEDE-4C88-907E-3AEF79082283}" name="mcb"/>
-    <tableColumn id="11" xr3:uid="{FEAF1EE7-AB95-4690-86A4-73E18ED40FA6}" name="js"/>
-    <tableColumn id="12" xr3:uid="{2FB839E2-A84F-4D1B-89CF-1FFC3B114A08}" name="py"/>
+    <tableColumn id="5" xr3:uid="{A966F495-6A91-4860-9F68-B32DFCF29EB9}" name="tv" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B04D38BA-750C-42BF-8776-4BB614277482}" name="mt5" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{D2BA039E-10A9-414D-B17D-FB19508FCEB4}" name="tt" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F554DD79-31B8-4647-A2C7-D6C5404040D4}" name="tc2" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{017A7E09-53A8-4CEF-AE3F-5E6ECC9E1B62}" name="azb" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{ABD9386F-EEDE-4C88-907E-3AEF79082283}" name="mcb" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{FEAF1EE7-AB95-4690-86A4-73E18ED40FA6}" name="js" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2FB839E2-A84F-4D1B-89CF-1FFC3B114A08}" name="py" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -810,26 +874,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="7.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -845,831 +902,873 @@
       <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
+        <v>125</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>129</v>
       </c>
-      <c r="E18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" t="s">
-        <v>110</v>
+      <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" t="s">
-        <v>109</v>
+        <v>23</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" t="s">
-        <v>109</v>
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" t="s">
-        <v>109</v>
+        <v>28</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" t="s">
-        <v>110</v>
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>110</v>
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>110</v>
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
+        <v>37</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" t="s">
-        <v>109</v>
+        <v>40</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" t="s">
-        <v>109</v>
+        <v>44</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" t="s">
-        <v>110</v>
+        <v>140</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1677,50 +1776,50 @@
       <c r="D63" t="s">
         <v>102</v>
       </c>
-      <c r="E63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>110</v>
+      <c r="E63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" t="s">
-        <v>109</v>
-      </c>
-      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1728,400 +1827,490 @@
       <c r="D66" t="s">
         <v>102</v>
       </c>
-      <c r="E66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" t="s">
-        <v>109</v>
+      <c r="E66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F69" t="s">
-        <v>110</v>
+        <v>53</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E70" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" t="s">
-        <v>109</v>
-      </c>
-      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" t="s">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" t="s">
-        <v>109</v>
+        <v>58</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77" t="s">
-        <v>110</v>
+        <v>61</v>
+      </c>
+      <c r="B77" t="s">
+        <v>141</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="E78" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F79" t="s">
-        <v>109</v>
+        <v>63</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>66</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>86</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C83" t="s">
         <v>45</v>
       </c>
-      <c r="E80" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="E83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>67</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>87</v>
       </c>
-      <c r="E81" t="s">
-        <v>109</v>
-      </c>
-      <c r="F81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="E84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>68</v>
       </c>
-      <c r="E82" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="E85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>69</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>69</v>
       </c>
-      <c r="E83" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="E86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>70</v>
       </c>
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" t="s">
-        <v>109</v>
-      </c>
-      <c r="F84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>71</v>
       </c>
-      <c r="E85" t="s">
-        <v>109</v>
-      </c>
-      <c r="F85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="E88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>72</v>
       </c>
-      <c r="E86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" t="s">
         <v>147</v>
       </c>
-      <c r="B87" t="s">
-        <v>148</v>
-      </c>
-      <c r="E87" t="s">
-        <v>110</v>
-      </c>
-      <c r="F87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>73</v>
       </c>
-      <c r="E88" t="s">
-        <v>109</v>
-      </c>
-      <c r="F88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="E91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>74</v>
       </c>
-      <c r="E89" t="s">
-        <v>109</v>
-      </c>
-      <c r="F89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="E92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>75</v>
       </c>
-      <c r="E90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="E93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>76</v>
       </c>
-      <c r="E91" t="s">
-        <v>109</v>
-      </c>
-      <c r="F91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" t="s">
-        <v>110</v>
-      </c>
-      <c r="F92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>77</v>
-      </c>
-      <c r="E93" t="s">
-        <v>109</v>
-      </c>
-      <c r="F93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>78</v>
-      </c>
-      <c r="B94" t="s">
-        <v>89</v>
-      </c>
-      <c r="C94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" t="s">
-        <v>109</v>
-      </c>
-      <c r="F94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>79</v>
-      </c>
-      <c r="B95" t="s">
-        <v>122</v>
-      </c>
-      <c r="E95" t="s">
-        <v>109</v>
-      </c>
-      <c r="F95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" t="s">
-        <v>109</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>81</v>
       </c>
-      <c r="E97" t="s">
-        <v>109</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:L1048576" xr:uid="{25A89B9D-DA12-4A05-96E7-E9E70DBF5FC9}">
+      <formula1>"✅,❎"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/tekal/ind.xlsx
+++ b/tekal/ind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\tekal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A08AF5-7829-4F0C-9361-B6AEDAB00044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF155555-F3FA-41C8-A15B-8E666C21BFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="3330" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25035" yWindow="2865" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="230">
   <si>
     <t>Accumulation/Distribution</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Detrended Price Oscillator</t>
   </si>
   <si>
-    <t>Directional Movement</t>
-  </si>
-  <si>
     <t>Donchian Channels</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>Market Facilitation Index Bill Williams</t>
   </si>
   <si>
-    <t>Mom</t>
-  </si>
-  <si>
     <t>Money Flow Index</t>
   </si>
   <si>
@@ -505,6 +499,222 @@
   </si>
   <si>
     <t>BB | BBANDS</t>
+  </si>
+  <si>
+    <t>Bar Value Area</t>
+  </si>
+  <si>
+    <t>Bid Volume</t>
+  </si>
+  <si>
+    <t>Band Width</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>BVA</t>
+  </si>
+  <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>BVOL</t>
+  </si>
+  <si>
+    <t>DI plus</t>
+  </si>
+  <si>
+    <t>DMI</t>
+  </si>
+  <si>
+    <t>Directional Movement (Indicators)</t>
+  </si>
+  <si>
+    <t>ICH</t>
+  </si>
+  <si>
+    <t>Fill Indicator</t>
+  </si>
+  <si>
+    <t>FILL</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Linear Regression Angle</t>
+  </si>
+  <si>
+    <t>Linear Regression Intercept</t>
+  </si>
+  <si>
+    <t>Linear Regression Slope</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LRA</t>
+  </si>
+  <si>
+    <t>LRI</t>
+  </si>
+  <si>
+    <t>LRM</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>Midpoint</t>
+  </si>
+  <si>
+    <t>Midprice</t>
+  </si>
+  <si>
+    <t>MIDPNT</t>
+  </si>
+  <si>
+    <t>MIDPRI</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MINMAX</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MOM</t>
+  </si>
+  <si>
+    <t>Average True Range (Normalized)</t>
+  </si>
+  <si>
+    <t>NATR</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Custom Indicator</t>
+  </si>
+  <si>
+    <t>Percent Price Oscillator</t>
+  </si>
+  <si>
+    <t>PPO</t>
+  </si>
+  <si>
+    <t>Rate Of Change 100</t>
+  </si>
+  <si>
+    <t>Rate Of Change Percentage</t>
+  </si>
+  <si>
+    <t>ROC100</t>
+  </si>
+  <si>
+    <t>ROCP</t>
+  </si>
+  <si>
+    <t>ROCR</t>
+  </si>
+  <si>
+    <t>Rate Of Change Rate</t>
+  </si>
+  <si>
+    <t>S_VOL</t>
+  </si>
+  <si>
+    <t>Session Volume</t>
+  </si>
+  <si>
+    <t>Session Cumulative Ask</t>
+  </si>
+  <si>
+    <t>Session Cumulative Bid</t>
+  </si>
+  <si>
+    <t>SBVOL</t>
+  </si>
+  <si>
+    <t>SAVOL</t>
+  </si>
+  <si>
+    <t>Stochastic Fast</t>
+  </si>
+  <si>
+    <t>StochF</t>
+  </si>
+  <si>
+    <t>STDDEV</t>
+  </si>
+  <si>
+    <t>Triple EMA Tim Tillson</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Triangular Moving Average</t>
+  </si>
+  <si>
+    <t>TRIMA</t>
+  </si>
+  <si>
+    <t>Time Series Forecast</t>
+  </si>
+  <si>
+    <t>TSF</t>
+  </si>
+  <si>
+    <t>TT Cumulative Vol Delta</t>
+  </si>
+  <si>
+    <t>TT CVD</t>
+  </si>
+  <si>
+    <t>ULTOSC</t>
+  </si>
+  <si>
+    <t>Volume Weighted Average Price</t>
+  </si>
+  <si>
+    <t>Volume Weighted Moving Average</t>
+  </si>
+  <si>
+    <t>Volume At Price</t>
+  </si>
+  <si>
+    <t>VAP</t>
+  </si>
+  <si>
+    <t>Volume Delta</t>
+  </si>
+  <si>
+    <t>Vol ∆</t>
+  </si>
+  <si>
+    <t>Wilder's Smoothing Average</t>
+  </si>
+  <si>
+    <t>WWS</t>
   </si>
 </sst>
 </file>
@@ -591,8 +801,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:L102" totalsRowShown="0">
-  <autoFilter ref="A1:L102" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:L133" totalsRowShown="0">
+  <autoFilter ref="A1:L133" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4868546D-E70B-4A18-9F7B-81FF9FB1880A}" name="Name"/>
     <tableColumn id="2" xr3:uid="{95B950FC-7417-4109-B485-441C5940D7E2}" name="Acronym"/>
@@ -874,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,91 +1101,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -983,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1000,30 +1210,30 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1031,13 +1241,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1045,13 +1255,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1059,33 +1269,33 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1093,39 +1303,39 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
         <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1133,30 +1343,30 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>109</v>
@@ -1165,46 +1375,46 @@
         <v>109</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>109</v>
@@ -1213,1004 +1423,1265 @@
         <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>29</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>133</v>
       </c>
-      <c r="B42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="E52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="E64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>137</v>
       </c>
-      <c r="B53" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>47</v>
       </c>
-      <c r="B63" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>59</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>64</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>101</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>97</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" t="s">
+        <v>96</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>101</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>75</v>
+        <v>199</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>109</v>
@@ -2218,97 +2689,639 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" t="s">
+        <v>214</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>70</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" t="s">
+        <v>72</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>76</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="E128" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>77</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>78</v>
       </c>
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" t="s">
-        <v>45</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B131" t="s">
+        <v>121</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>79</v>
       </c>
-      <c r="B100" t="s">
-        <v>122</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="E132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>80</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>110</v>
+      <c r="E133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:L1048576" xr:uid="{25A89B9D-DA12-4A05-96E7-E9E70DBF5FC9}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E134:L1048576" xr:uid="{25A89B9D-DA12-4A05-96E7-E9E70DBF5FC9}">
       <formula1>"✅,❎"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:L133" xr:uid="{DA3F5986-2AE7-49B9-899D-572DDD23394A}">
+      <formula1>"❎,✅"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tekal/ind.xlsx
+++ b/tekal/ind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\tekal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE34776-520B-4799-8154-14C1130F7F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFE47A-48C8-43E9-B8DD-EB8D95411FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21840" yWindow="2865" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="279">
   <si>
     <t>Accumulation/Distribution</t>
   </si>
@@ -678,9 +678,6 @@
     <t>Wilder's Smoothing Average</t>
   </si>
   <si>
-    <t>WWS</t>
-  </si>
-  <si>
     <t>BOP</t>
   </si>
   <si>
@@ -852,7 +849,19 @@
     <t>VI</t>
   </si>
   <si>
-    <t>WR</t>
+    <t>Typical Price</t>
+  </si>
+  <si>
+    <t>Volume Profile</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>WWS | WEMA</t>
+  </si>
+  <si>
+    <t>WR | W%R</t>
   </si>
 </sst>
 </file>
@@ -945,8 +954,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:L159" totalsRowShown="0">
-  <autoFilter ref="A1:L159" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:L161" totalsRowShown="0">
+  <autoFilter ref="A1:L161" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{4868546D-E70B-4A18-9F7B-81FF9FB1880A}" name="Name"/>
     <tableColumn id="2" xr3:uid="{95B950FC-7417-4109-B485-441C5940D7E2}" name="Acronym"/>
@@ -1228,16 +1237,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="7.140625" style="1" customWidth="1"/>
@@ -1382,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -1406,7 +1415,7 @@
         <v>104</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>103</v>
@@ -1624,7 +1633,7 @@
         <v>104</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>103</v>
@@ -1697,7 +1706,7 @@
         <v>104</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>103</v>
@@ -1764,7 +1773,7 @@
         <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>103</v>
@@ -1775,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>103</v>
@@ -1930,7 +1939,7 @@
         <v>104</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>103</v>
@@ -1999,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
@@ -2191,7 +2200,7 @@
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
         <v>91</v>
@@ -2215,7 +2224,7 @@
         <v>104</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>103</v>
@@ -2368,7 +2377,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>104</v>
@@ -2400,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -2461,7 +2470,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
         <v>157</v>
@@ -2493,7 +2502,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>104</v>
@@ -2525,7 +2534,7 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
         <v>98</v>
@@ -2589,7 +2598,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>104</v>
@@ -2650,7 +2659,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
@@ -2685,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -2709,7 +2718,7 @@
         <v>104</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>103</v>
@@ -2717,7 +2726,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>104</v>
@@ -2746,10 +2755,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>104</v>
@@ -2778,7 +2787,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
         <v>98</v>
@@ -2964,10 +2973,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" t="s">
         <v>228</v>
-      </c>
-      <c r="B55" t="s">
-        <v>229</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>104</v>
@@ -3025,7 +3034,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>104</v>
@@ -3110,7 +3119,7 @@
         <v>104</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>103</v>
@@ -3118,10 +3127,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" t="s">
         <v>265</v>
-      </c>
-      <c r="B60" t="s">
-        <v>266</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -3153,7 +3162,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>104</v>
@@ -3252,7 +3261,7 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -3276,7 +3285,7 @@
         <v>104</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>103</v>
@@ -3313,7 +3322,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B66" t="s">
         <v>164</v>
@@ -3438,7 +3447,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>104</v>
@@ -3619,7 +3628,7 @@
         <v>104</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>103</v>
@@ -3659,7 +3668,7 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -3968,7 +3977,7 @@
         <v>104</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>103</v>
@@ -3976,7 +3985,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>104</v>
@@ -4035,7 +4044,7 @@
         <v>104</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>104</v>
@@ -4075,7 +4084,7 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -4102,7 +4111,7 @@
         <v>104</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>104</v>
@@ -4140,7 +4149,7 @@
         <v>104</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>104</v>
@@ -4148,10 +4157,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
         <v>269</v>
-      </c>
-      <c r="B92" t="s">
-        <v>270</v>
       </c>
       <c r="C92" t="s">
         <v>71</v>
@@ -4242,7 +4251,7 @@
         <v>104</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>103</v>
@@ -4280,7 +4289,7 @@
         <v>104</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>103</v>
@@ -4320,7 +4329,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>104</v>
@@ -4349,10 +4358,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" t="s">
         <v>235</v>
-      </c>
-      <c r="B98" t="s">
-        <v>236</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>104</v>
@@ -4381,7 +4390,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>103</v>
@@ -4506,7 +4515,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>104</v>
@@ -4562,7 +4571,7 @@
         <v>104</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>103</v>
@@ -4722,7 +4731,7 @@
         <v>104</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>103</v>
@@ -4730,7 +4739,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
         <v>43</v>
@@ -4823,10 +4832,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>104</v>
@@ -4855,10 +4864,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>104</v>
@@ -4887,10 +4896,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>104</v>
@@ -5167,7 +5176,7 @@
         <v>104</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>103</v>
@@ -5207,10 +5216,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
         <v>240</v>
-      </c>
-      <c r="B125" t="s">
-        <v>241</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>104</v>
@@ -5263,7 +5272,7 @@
         <v>104</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>104</v>
@@ -5271,7 +5280,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>104</v>
@@ -5329,7 +5338,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>104</v>
@@ -5417,7 +5426,7 @@
         <v>104</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>103</v>
@@ -5521,10 +5530,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C135" t="s">
         <v>43</v>
@@ -5588,7 +5597,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>104</v>
@@ -5617,22 +5626,16 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>68</v>
-      </c>
-      <c r="B138" t="s">
-        <v>271</v>
-      </c>
-      <c r="C138" t="s">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>104</v>
@@ -5644,27 +5647,30 @@
         <v>104</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>270</v>
+      </c>
+      <c r="C139" t="s">
+        <v>43</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>104</v>
@@ -5679,21 +5685,24 @@
         <v>104</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>71</v>
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
+        <v>136</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>104</v>
@@ -5713,16 +5722,13 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>212</v>
-      </c>
-      <c r="B141" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>103</v>
@@ -5745,10 +5751,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>104</v>
@@ -5777,10 +5783,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>104</v>
@@ -5809,10 +5815,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>104</v>
@@ -5841,16 +5847,19 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>104</v>
@@ -5870,16 +5879,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>272</v>
-      </c>
-      <c r="B146" t="s">
-        <v>273</v>
-      </c>
-      <c r="C146" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>104</v>
@@ -5900,15 +5903,18 @@
         <v>104</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>101</v>
+        <v>271</v>
       </c>
       <c r="B147" t="s">
-        <v>102</v>
+        <v>272</v>
+      </c>
+      <c r="C147" t="s">
+        <v>71</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>104</v>
@@ -5932,30 +5938,27 @@
         <v>104</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B148" t="s">
-        <v>69</v>
-      </c>
-      <c r="C148" t="s">
-        <v>71</v>
+        <v>276</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>104</v>
@@ -5964,15 +5967,18 @@
         <v>104</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>247</v>
+        <v>101</v>
+      </c>
+      <c r="B149" t="s">
+        <v>102</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>104</v>
@@ -5984,10 +5990,10 @@
         <v>104</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>104</v>
@@ -6001,10 +6007,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B150" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C150" t="s">
+        <v>71</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>103</v>
@@ -6013,7 +6022,7 @@
         <v>104</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>103</v>
@@ -6025,24 +6034,18 @@
         <v>104</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>73</v>
-      </c>
-      <c r="B151" t="s">
-        <v>274</v>
-      </c>
-      <c r="C151" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>104</v>
@@ -6051,7 +6054,7 @@
         <v>104</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>104</v>
@@ -6063,27 +6066,27 @@
         <v>104</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>104</v>
@@ -6100,25 +6103,25 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C153" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>104</v>
@@ -6135,7 +6138,10 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>248</v>
+        <v>216</v>
+      </c>
+      <c r="B154" t="s">
+        <v>277</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>104</v>
@@ -6144,10 +6150,10 @@
         <v>104</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>104</v>
@@ -6156,7 +6162,7 @@
         <v>104</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>104</v>
@@ -6164,16 +6170,22 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>74</v>
+      </c>
+      <c r="B155" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" t="s">
+        <v>43</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>103</v>
@@ -6185,24 +6197,21 @@
         <v>104</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>75</v>
-      </c>
-      <c r="B156" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>104</v>
@@ -6225,7 +6234,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>104</v>
@@ -6254,19 +6263,22 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B158" t="s">
+        <v>115</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>104</v>
@@ -6283,40 +6295,98 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>249</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>76</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>77</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L159" s="1" t="s">
+      <c r="E161" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L161" s="1" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E160:L1048576" xr:uid="{25A89B9D-DA12-4A05-96E7-E9E70DBF5FC9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E162:L1048576" xr:uid="{25A89B9D-DA12-4A05-96E7-E9E70DBF5FC9}">
       <formula1>"✅,❎"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:L159" xr:uid="{DA3F5986-2AE7-49B9-899D-572DDD23394A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:L161" xr:uid="{DA3F5986-2AE7-49B9-899D-572DDD23394A}">
       <formula1>"❎,✅"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tekal/ind.xlsx
+++ b/tekal/ind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\tekal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628A11B-F7E1-4237-92B1-839F42C1CCFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C21B2F3-D486-4157-98C4-160FFAB3AC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="2250" windowWidth="6960" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6407,7 +6407,7 @@
         <v>102</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>102</v>
